--- a/biology/Botanique/Lasiochlamys_reticulata/Lasiochlamys_reticulata.xlsx
+++ b/biology/Botanique/Lasiochlamys_reticulata/Lasiochlamys_reticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lasiochlamys reticulata est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Lasiochlamys dont elle est l'espèce type[2]. Elle est endémique de Nouvelle-Calédonie, et protégée[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lasiochlamys reticulata est une espèce de plantes à fleurs de la famille des Salicaceae et du genre Lasiochlamys dont elle est l'espèce type. Elle est endémique de Nouvelle-Calédonie, et protégée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste de 2–6 m, très ramifié ; les rameaux sont noirâtres et couverts de lenticelles. Les feuilles sont elliptiques, un peu coriaces, obtuses au sommet, en coin à la base ; le bord est entier, un peu révoluté ; les nervures secondaires sont saillantes. Les fleurs sont blanchâtres sur des grappes très courtes de 5–7 fleurs. Les fruits sont inconnus. La floraison est répartie sur toute l'année[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste de 2–6 m, très ramifié ; les rameaux sont noirâtres et couverts de lenticelles. Les feuilles sont elliptiques, un peu coriaces, obtuses au sommet, en coin à la base ; le bord est entier, un peu révoluté ; les nervures secondaires sont saillantes. Les fleurs sont blanchâtres sur des grappes très courtes de 5–7 fleurs. Les fruits sont inconnus. La floraison est répartie sur toute l'année.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce possède une aire de répartition disjointe sur la Grande Terre : Aoupinié et Panié. Elle pousse en sous-bois de la forêt dense, humide, sur sol plus ou moins profond sur substrat sédimentaire (schistes)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce possède une aire de répartition disjointe sur la Grande Terre : Aoupinié et Panié. Elle pousse en sous-bois de la forêt dense, humide, sur sol plus ou moins profond sur substrat sédimentaire (schistes).
 </t>
         </is>
       </c>
